--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,30 +46,33 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>waste</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>junk</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
@@ -79,31 +82,34 @@
     <t>cheap</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>would</t>
+    <t>better</t>
   </si>
   <si>
     <t>work</t>
@@ -112,60 +118,60 @@
     <t>product</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>friends</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
@@ -173,6 +179,9 @@
   </si>
   <si>
     <t>fun</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>easy</t>
@@ -539,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,10 +556,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -608,13 +617,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -626,19 +635,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -650,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -658,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7727272727272727</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -676,19 +685,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.8461538461538461</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.703125</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.8064516129032258</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6901408450704225</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.78125</v>
+        <v>0.703125</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6559139784946236</v>
+        <v>0.640625</v>
       </c>
       <c r="C7">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>0.660377358490566</v>
@@ -858,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6067961165048543</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C8">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D8">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.5652173913043478</v>
+        <v>0.5552367288378766</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>387</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>387</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -908,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6013513513513513</v>
+        <v>0.6213592233009708</v>
       </c>
       <c r="C9">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="D9">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.5480631276901005</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L9">
-        <v>382</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>382</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>315</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.520746887966805</v>
+        <v>0.5062240663900415</v>
       </c>
       <c r="L10">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M10">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1008,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5454545454545454</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1026,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.4631147540983607</v>
+        <v>0.4598360655737705</v>
       </c>
       <c r="L11">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="M11">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1050,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1058,13 +1067,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.472463768115942</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="C12">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D12">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1076,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.3614457831325301</v>
+        <v>0.3577981651376147</v>
       </c>
       <c r="L12">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="M12">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1100,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>106</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1108,13 +1117,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4251968503937008</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C13">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1126,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.3516819571865443</v>
+        <v>0.3493975903614458</v>
       </c>
       <c r="L13">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="M13">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1150,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>212</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1158,13 +1167,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1176,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.3083333333333333</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1200,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>83</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1208,13 +1217,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3838862559241706</v>
+        <v>0.4</v>
       </c>
       <c r="C15">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1226,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.291005291005291</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L15">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1250,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>134</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1258,13 +1267,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3734939759036144</v>
+        <v>0.3649289099526066</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1276,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>134</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K16">
-        <v>0.1827956989247312</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1300,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1308,13 +1317,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3515625</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1326,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.1807228915662651</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1350,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1358,13 +1367,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3370786516853932</v>
+        <v>0.3125</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1376,31 +1385,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.1507449605609115</v>
+        <v>0.1527655838454785</v>
       </c>
       <c r="L18">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M18">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1408,13 +1417,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2623762376237624</v>
+        <v>0.2376237623762376</v>
       </c>
       <c r="C19">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D19">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1426,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.08288770053475936</v>
+        <v>0.08077994428969359</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1450,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1458,13 +1467,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2268041237113402</v>
+        <v>0.211340206185567</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1476,31 +1485,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.07082521117608837</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="L20">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1430</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1508,13 +1517,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1740506329113924</v>
+        <v>0.18</v>
       </c>
       <c r="C21">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1526,7 +1535,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>261</v>
+        <v>164</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21">
+        <v>0.07017543859649122</v>
+      </c>
+      <c r="L21">
+        <v>108</v>
+      </c>
+      <c r="M21">
+        <v>110</v>
+      </c>
+      <c r="N21">
+        <v>0.98</v>
+      </c>
+      <c r="O21">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1431</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1534,13 +1567,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1666666666666667</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C22">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D22">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1552,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1560,25 +1593,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1580459770114943</v>
+        <v>0.1768202080237742</v>
       </c>
       <c r="C23">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="D23">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>293</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1586,13 +1619,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1557863501483679</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C24">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="D24">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1604,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>569</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1612,25 +1645,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1455696202531646</v>
+        <v>0.1556195965417868</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1638,13 +1671,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1233480176211454</v>
+        <v>0.1542056074766355</v>
       </c>
       <c r="C26">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1656,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>398</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1664,13 +1697,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1169354838709677</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1682,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>219</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1690,25 +1723,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1161048689138577</v>
+        <v>0.1368653421633554</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>236</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1742,25 +1775,77 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.06754530477759473</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.05445544554455446</v>
+      </c>
+      <c r="C31">
+        <v>33</v>
+      </c>
+      <c r="D31">
+        <v>35</v>
+      </c>
+      <c r="E31">
+        <v>0.06</v>
+      </c>
+      <c r="F31">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.04198473282442748</v>
+      </c>
+      <c r="C32">
+        <v>33</v>
+      </c>
+      <c r="D32">
         <v>41</v>
       </c>
-      <c r="D30">
-        <v>42</v>
-      </c>
-      <c r="E30">
-        <v>0.02</v>
-      </c>
-      <c r="F30">
-        <v>0.98</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>566</v>
+      <c r="E32">
+        <v>0.2</v>
+      </c>
+      <c r="F32">
+        <v>0.8</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>753</v>
       </c>
     </row>
   </sheetData>
